--- a/plots/basic_stats/two_var_stats/allmus_country_name_vs_subject_matter.xlsx
+++ b/plots/basic_stats/two_var_stats/allmus_country_name_vs_subject_matter.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DG5"/>
+  <dimension ref="A1:DK5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,552 +365,572 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>/Archaeology/Greek and Egyptian</t>
+          <t>Archaeology</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>/Archaeology/Medieval</t>
+          <t>Archaeology-Greek_and_Egyptian</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>/Archaeology/Mixed</t>
+          <t>Archaeology-Medieval</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>/Archaeology/Other</t>
+          <t>Archaeology-Mixed</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>/Archaeology/Prehistory</t>
+          <t>Archaeology-Other</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>/Archaeology/Roman</t>
+          <t>Archaeology-Prehistory</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>/Arts/Ceramics</t>
+          <t>Archaeology-Roman</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>/Arts/Costume and textiles</t>
+          <t>Arts-Ceramics</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>/Arts/Crafts</t>
+          <t>Arts-Costume_and_textiles</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>/Arts/Design</t>
+          <t>Arts-Crafts</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>/Arts/Fine and decorative arts</t>
+          <t>Arts-Design</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>/Arts/Glass</t>
+          <t>Arts-Fine_and_decorative_arts</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>/Arts/Literature</t>
+          <t>Arts-Glass</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>/Arts/Music</t>
+          <t>Arts-Literature</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>/Arts/Other</t>
+          <t>Arts-Music</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>/Arts/Photography</t>
+          <t>Arts-Other</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>/Belief and identity/Church treasuries</t>
+          <t>Arts-Photography</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>/Belief and identity/Ethnic group</t>
+          <t>Belief_and_identity</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>/Belief and identity/Freemasons</t>
+          <t>Belief_and_identity-Church_treasuries</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>/Belief and identity/Other</t>
+          <t>Belief_and_identity-Ethnic_group</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>/Belief and identity/Religion</t>
+          <t>Belief_and_identity-Freemasons</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>/Belief and identity/Religious buildings</t>
+          <t>Belief_and_identity-Other</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>/Buildings/Civic</t>
+          <t>Belief_and_identity-Religion</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>/Buildings/Houses/Large houses</t>
+          <t>Belief_and_identity-Religious_buildings</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>/Buildings/Houses/Medium houses</t>
+          <t>Buildings-Civic</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>/Buildings/Houses/Small houses</t>
+          <t>Buildings-Houses-Large_houses</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>/Buildings/Other</t>
+          <t>Buildings-Houses-Medium_houses</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>/Buildings/Palace</t>
+          <t>Buildings-Houses-Small_houses</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>/Buildings/Penal</t>
+          <t>Buildings-Other</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>/Buildings/School</t>
+          <t>Buildings-Palace</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>/Buildings/Shops</t>
+          <t>Buildings-Penal</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>/Communications/Other</t>
+          <t>Buildings-School</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>/Communications/Post</t>
+          <t>Buildings-Shops</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>/Communications/Radio</t>
+          <t>Communications</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>/Food and drink</t>
+          <t>Communications-Other</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>/Industry and manufacture/Clocks and watches</t>
+          <t>Communications-Post</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>/Industry and manufacture/Industrial life</t>
+          <t>Communications-Radio</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>/Industry and manufacture/Metals</t>
+          <t>Food_and_drink</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>/Industry and manufacture/Mining and quarrying</t>
+          <t>Industry_and_manufacture-Clocks_and_watches</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>/Industry and manufacture/Mixed</t>
+          <t>Industry_and_manufacture-Industrial_life</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>/Industry and manufacture/Other</t>
+          <t>Industry_and_manufacture-Metals</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>/Industry and manufacture/Potteries</t>
+          <t>Industry_and_manufacture-Mining_and_quarrying</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>/Industry and manufacture/Print</t>
+          <t>Industry_and_manufacture-Mixed</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>/Industry and manufacture/Steam and engines</t>
+          <t>Industry_and_manufacture-Other</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>/Industry and manufacture/Textiles</t>
+          <t>Industry_and_manufacture-Potteries</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>/Leisure and sport/Cricket</t>
+          <t>Industry_and_manufacture-Print</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>/Leisure and sport/Fairgrounds and amusements</t>
+          <t>Industry_and_manufacture-Steam_and_engines</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>/Leisure and sport/Film Cinema and TV</t>
+          <t>Industry_and_manufacture-Textiles</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>/Leisure and sport/Other</t>
+          <t>Leisure_and_sport-Cricket</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>/Leisure and sport/Rugby and football</t>
+          <t>Leisure_and_sport-Fairgrounds_and_amusements</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>/Leisure and sport/Toys and models</t>
+          <t>Leisure_and_sport-Film_Cinema_and_TV</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>/Local Histories</t>
+          <t>Leisure_and_sport-Other</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>/Medicine and health/Hospital</t>
+          <t>Leisure_and_sport-Rugby_and_football</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>/Medicine and health/Other</t>
+          <t>Leisure_and_sport-Toys_and_models</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
-          <t>/Medicine and health/Professional association</t>
+          <t>Local_Histories</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
-          <t>/Mixed/Bygones</t>
+          <t>Medicine_and_health-Hospital</t>
         </is>
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
-          <t>/Mixed/Encyclopaedic</t>
+          <t>Medicine_and_health-Other</t>
         </is>
       </c>
       <c r="BG1" s="1" t="inlineStr">
         <is>
-          <t>/Mixed/Other</t>
+          <t>Medicine_and_health-Professional_association</t>
         </is>
       </c>
       <c r="BH1" s="1" t="inlineStr">
         <is>
-          <t>/Natural world/Dinosaurs</t>
+          <t>Mixed-Bygones</t>
         </is>
       </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
-          <t>/Natural world/Fossils</t>
+          <t>Mixed-Encyclopaedic</t>
         </is>
       </c>
       <c r="BJ1" s="1" t="inlineStr">
         <is>
-          <t>/Natural world/Geology</t>
+          <t>Mixed-Other</t>
         </is>
       </c>
       <c r="BK1" s="1" t="inlineStr">
         <is>
-          <t>/Natural world/Herbaria and gardening</t>
+          <t>Natural_world</t>
         </is>
       </c>
       <c r="BL1" s="1" t="inlineStr">
         <is>
-          <t>/Natural world/Mixed</t>
+          <t>Natural_world-Dinosaurs</t>
         </is>
       </c>
       <c r="BM1" s="1" t="inlineStr">
         <is>
-          <t>/Natural world/Other</t>
+          <t>Natural_world-Fossils</t>
         </is>
       </c>
       <c r="BN1" s="1" t="inlineStr">
         <is>
-          <t>/Natural world/Zoology</t>
+          <t>Natural_world-Geology</t>
         </is>
       </c>
       <c r="BO1" s="1" t="inlineStr">
         <is>
-          <t>/Other</t>
+          <t>Natural_world-Herbaria_and_gardening</t>
         </is>
       </c>
       <c r="BP1" s="1" t="inlineStr">
         <is>
-          <t>/Personality/Art</t>
+          <t>Natural_world-Mixed</t>
         </is>
       </c>
       <c r="BQ1" s="1" t="inlineStr">
         <is>
-          <t>/Personality/Explorer</t>
+          <t>Natural_world-Other</t>
         </is>
       </c>
       <c r="BR1" s="1" t="inlineStr">
         <is>
-          <t>/Personality/Literary</t>
+          <t>Natural_world-Zoology</t>
         </is>
       </c>
       <c r="BS1" s="1" t="inlineStr">
         <is>
-          <t>/Personality/Music</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="BT1" s="1" t="inlineStr">
         <is>
-          <t>/Personality/Other</t>
+          <t>Personality-Art</t>
         </is>
       </c>
       <c r="BU1" s="1" t="inlineStr">
         <is>
-          <t>/Personality/Political</t>
+          <t>Personality-Explorer</t>
         </is>
       </c>
       <c r="BV1" s="1" t="inlineStr">
         <is>
-          <t>/Personality/Religious</t>
+          <t>Personality-Literary</t>
         </is>
       </c>
       <c r="BW1" s="1" t="inlineStr">
         <is>
-          <t>/Personality/Scientific</t>
+          <t>Personality-Music</t>
         </is>
       </c>
       <c r="BX1" s="1" t="inlineStr">
         <is>
-          <t>/Rural Industry/Farming</t>
+          <t>Personality-Other</t>
         </is>
       </c>
       <c r="BY1" s="1" t="inlineStr">
         <is>
-          <t>/Rural Industry/Forges</t>
+          <t>Personality-Political</t>
         </is>
       </c>
       <c r="BZ1" s="1" t="inlineStr">
         <is>
-          <t>/Rural Industry/Other</t>
+          <t>Personality-Religious</t>
         </is>
       </c>
       <c r="CA1" s="1" t="inlineStr">
         <is>
-          <t>/Rural Industry/Rural life</t>
+          <t>Personality-Scientific</t>
         </is>
       </c>
       <c r="CB1" s="1" t="inlineStr">
         <is>
-          <t>/Rural Industry/Textiles</t>
+          <t>Rural_Industry-Farming</t>
         </is>
       </c>
       <c r="CC1" s="1" t="inlineStr">
         <is>
-          <t>/Rural Industry/Watermills</t>
+          <t>Rural_Industry-Forges</t>
         </is>
       </c>
       <c r="CD1" s="1" t="inlineStr">
         <is>
-          <t>/Rural Industry/Windmills</t>
+          <t>Rural_Industry-Other</t>
         </is>
       </c>
       <c r="CE1" s="1" t="inlineStr">
         <is>
-          <t>/Science and technology/Computing and gaming</t>
+          <t>Rural_Industry-Rural_life</t>
         </is>
       </c>
       <c r="CF1" s="1" t="inlineStr">
         <is>
-          <t>/Science and technology/Other</t>
+          <t>Rural_Industry-Textiles</t>
         </is>
       </c>
       <c r="CG1" s="1" t="inlineStr">
         <is>
-          <t>/Sea and seafaring/Boats and ships</t>
+          <t>Rural_Industry-Watermills</t>
         </is>
       </c>
       <c r="CH1" s="1" t="inlineStr">
         <is>
-          <t>/Sea and seafaring/Fishing</t>
+          <t>Rural_Industry-Windmills</t>
         </is>
       </c>
       <c r="CI1" s="1" t="inlineStr">
         <is>
-          <t>/Sea and seafaring/Lighthouses</t>
+          <t>Science_and_technology-Computing_and_gaming</t>
         </is>
       </c>
       <c r="CJ1" s="1" t="inlineStr">
         <is>
-          <t>/Sea and seafaring/Mixed</t>
+          <t>Science_and_technology-Other</t>
         </is>
       </c>
       <c r="CK1" s="1" t="inlineStr">
         <is>
-          <t>/Sea and seafaring/Other</t>
+          <t>Sea_and_seafaring-Boats_and_ships</t>
         </is>
       </c>
       <c r="CL1" s="1" t="inlineStr">
         <is>
-          <t>/Services/Fire</t>
+          <t>Sea_and_seafaring-Fishing</t>
         </is>
       </c>
       <c r="CM1" s="1" t="inlineStr">
         <is>
-          <t>/Services/Other</t>
+          <t>Sea_and_seafaring-Lighthouses</t>
         </is>
       </c>
       <c r="CN1" s="1" t="inlineStr">
         <is>
-          <t>/Services/Police</t>
+          <t>Sea_and_seafaring-Mixed</t>
         </is>
       </c>
       <c r="CO1" s="1" t="inlineStr">
         <is>
-          <t>/Services/RNLI</t>
+          <t>Sea_and_seafaring-Other</t>
         </is>
       </c>
       <c r="CP1" s="1" t="inlineStr">
         <is>
-          <t>/Transport/Aviation</t>
+          <t>Services-Fire</t>
         </is>
       </c>
       <c r="CQ1" s="1" t="inlineStr">
         <is>
-          <t>/Transport/Bicycles</t>
+          <t>Services-Other</t>
         </is>
       </c>
       <c r="CR1" s="1" t="inlineStr">
         <is>
-          <t>/Transport/Buses and trams</t>
+          <t>Services-Police</t>
         </is>
       </c>
       <c r="CS1" s="1" t="inlineStr">
         <is>
-          <t>/Transport/Canals</t>
+          <t>Services-RNLI</t>
         </is>
       </c>
       <c r="CT1" s="1" t="inlineStr">
         <is>
-          <t>/Transport/Cars and motorbikes</t>
+          <t>Transport-Aviation</t>
         </is>
       </c>
       <c r="CU1" s="1" t="inlineStr">
         <is>
-          <t>/Transport/Mixed</t>
+          <t>Transport-Bicycles</t>
         </is>
       </c>
       <c r="CV1" s="1" t="inlineStr">
         <is>
-          <t>/Transport/Other</t>
+          <t>Transport-Buses_and_trams</t>
         </is>
       </c>
       <c r="CW1" s="1" t="inlineStr">
         <is>
-          <t>/Transport/Trains and railways</t>
+          <t>Transport-Canals</t>
         </is>
       </c>
       <c r="CX1" s="1" t="inlineStr">
         <is>
-          <t>/Utilities/Gas and electricity</t>
+          <t>Transport-Cars_and_motorbikes</t>
         </is>
       </c>
       <c r="CY1" s="1" t="inlineStr">
         <is>
-          <t>/Utilities/Water and waste</t>
+          <t>Transport-Mixed</t>
         </is>
       </c>
       <c r="CZ1" s="1" t="inlineStr">
         <is>
-          <t>/War and conflict/Airforce</t>
+          <t>Transport-Other</t>
         </is>
       </c>
       <c r="DA1" s="1" t="inlineStr">
         <is>
-          <t>/War and conflict/Bunker</t>
+          <t>Transport-Trains_and_railways</t>
         </is>
       </c>
       <c r="DB1" s="1" t="inlineStr">
         <is>
-          <t>/War and conflict/Castles and forts</t>
+          <t>Utilities-Gas_and_electricity</t>
         </is>
       </c>
       <c r="DC1" s="1" t="inlineStr">
         <is>
-          <t>/War and conflict/Event or site</t>
+          <t>Utilities-Water_and_waste</t>
         </is>
       </c>
       <c r="DD1" s="1" t="inlineStr">
         <is>
-          <t>/War and conflict/Military</t>
+          <t>War_and_conflict-Airforce</t>
         </is>
       </c>
       <c r="DE1" s="1" t="inlineStr">
         <is>
-          <t>/War and conflict/Navy</t>
+          <t>War_and_conflict-Bunker</t>
         </is>
       </c>
       <c r="DF1" s="1" t="inlineStr">
         <is>
-          <t>/War and conflict/Other</t>
+          <t>War_and_conflict-Castles_and_forts</t>
         </is>
       </c>
       <c r="DG1" s="1" t="inlineStr">
         <is>
-          <t>/War and conflict/Regiment</t>
+          <t>War_and_conflict-Event_or_site</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>War_and_conflict-Military</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>War_and_conflict-Navy</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>War_and_conflict-Other</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>War_and_conflict-Regiment</t>
         </is>
       </c>
     </row>
@@ -921,334 +941,346 @@
         </is>
       </c>
       <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>4</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>7</v>
       </c>
-      <c r="D2">
+      <c r="E2">
+        <v>18</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>16</v>
+      </c>
+      <c r="H2">
+        <v>37</v>
+      </c>
+      <c r="I2">
+        <v>20</v>
+      </c>
+      <c r="J2">
         <v>17</v>
       </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>15</v>
-      </c>
-      <c r="G2">
-        <v>38</v>
-      </c>
-      <c r="H2">
-        <v>19</v>
-      </c>
-      <c r="I2">
-        <v>16</v>
-      </c>
-      <c r="J2">
+      <c r="K2">
         <v>5</v>
       </c>
-      <c r="K2">
+      <c r="L2">
+        <v>7</v>
+      </c>
+      <c r="M2">
+        <v>150</v>
+      </c>
+      <c r="N2">
+        <v>9</v>
+      </c>
+      <c r="O2">
         <v>6</v>
       </c>
-      <c r="L2">
-        <v>145</v>
-      </c>
-      <c r="M2">
+      <c r="P2">
+        <v>21</v>
+      </c>
+      <c r="Q2">
+        <v>18</v>
+      </c>
+      <c r="R2">
         <v>8</v>
       </c>
-      <c r="N2">
-        <v>3</v>
-      </c>
-      <c r="O2">
-        <v>19</v>
-      </c>
-      <c r="P2">
-        <v>15</v>
-      </c>
-      <c r="Q2">
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>6</v>
+      </c>
+      <c r="U2">
+        <v>14</v>
+      </c>
+      <c r="V2">
+        <v>8</v>
+      </c>
+      <c r="W2">
         <v>5</v>
       </c>
-      <c r="R2">
+      <c r="X2">
+        <v>20</v>
+      </c>
+      <c r="Y2">
+        <v>30</v>
+      </c>
+      <c r="Z2">
+        <v>11</v>
+      </c>
+      <c r="AA2">
+        <v>330</v>
+      </c>
+      <c r="AB2">
+        <v>58</v>
+      </c>
+      <c r="AC2">
+        <v>13</v>
+      </c>
+      <c r="AD2">
+        <v>24</v>
+      </c>
+      <c r="AE2">
+        <v>7</v>
+      </c>
+      <c r="AF2">
+        <v>13</v>
+      </c>
+      <c r="AG2">
+        <v>8</v>
+      </c>
+      <c r="AH2">
+        <v>2</v>
+      </c>
+      <c r="AI2">
+        <v>1</v>
+      </c>
+      <c r="AJ2">
         <v>5</v>
       </c>
-      <c r="S2">
-        <v>11</v>
-      </c>
-      <c r="T2">
+      <c r="AK2">
         <v>7</v>
       </c>
-      <c r="U2">
-        <v>3</v>
-      </c>
-      <c r="V2">
-        <v>12</v>
-      </c>
-      <c r="W2">
-        <v>30</v>
-      </c>
-      <c r="X2">
+      <c r="AL2">
+        <v>4</v>
+      </c>
+      <c r="AM2">
+        <v>23</v>
+      </c>
+      <c r="AN2">
+        <v>6</v>
+      </c>
+      <c r="AO2">
+        <v>9</v>
+      </c>
+      <c r="AP2">
         <v>10</v>
       </c>
-      <c r="Y2">
-        <v>329</v>
-      </c>
-      <c r="Z2">
-        <v>55</v>
-      </c>
-      <c r="AA2">
-        <v>22</v>
-      </c>
-      <c r="AB2">
-        <v>24</v>
-      </c>
-      <c r="AC2">
-        <v>7</v>
-      </c>
-      <c r="AD2">
-        <v>13</v>
-      </c>
-      <c r="AE2">
-        <v>9</v>
-      </c>
-      <c r="AF2">
-        <v>2</v>
-      </c>
-      <c r="AG2">
-        <v>3</v>
-      </c>
-      <c r="AH2">
-        <v>7</v>
-      </c>
-      <c r="AI2">
-        <v>4</v>
-      </c>
-      <c r="AJ2">
-        <v>21</v>
-      </c>
-      <c r="AK2">
-        <v>6</v>
-      </c>
-      <c r="AL2">
-        <v>9</v>
-      </c>
-      <c r="AM2">
+      <c r="AQ2">
+        <v>37</v>
+      </c>
+      <c r="AR2">
+        <v>8</v>
+      </c>
+      <c r="AS2">
+        <v>35</v>
+      </c>
+      <c r="AT2">
         <v>10</v>
       </c>
-      <c r="AN2">
-        <v>36</v>
-      </c>
-      <c r="AO2">
-        <v>6</v>
-      </c>
-      <c r="AP2">
-        <v>27</v>
-      </c>
-      <c r="AQ2">
-        <v>10</v>
-      </c>
-      <c r="AR2">
+      <c r="AU2">
         <v>5</v>
-      </c>
-      <c r="AS2">
-        <v>9</v>
-      </c>
-      <c r="AT2">
-        <v>27</v>
-      </c>
-      <c r="AU2">
-        <v>8</v>
       </c>
       <c r="AV2">
         <v>9</v>
       </c>
       <c r="AW2">
+        <v>26</v>
+      </c>
+      <c r="AX2">
+        <v>8</v>
+      </c>
+      <c r="AY2">
+        <v>9</v>
+      </c>
+      <c r="AZ2">
         <v>20</v>
       </c>
-      <c r="AX2">
+      <c r="BA2">
+        <v>17</v>
+      </c>
+      <c r="BB2">
+        <v>16</v>
+      </c>
+      <c r="BC2">
+        <v>37</v>
+      </c>
+      <c r="BD2">
+        <v>615</v>
+      </c>
+      <c r="BE2">
         <v>14</v>
       </c>
-      <c r="AY2">
+      <c r="BF2">
+        <v>11</v>
+      </c>
+      <c r="BG2">
+        <v>10</v>
+      </c>
+      <c r="BH2">
         <v>13</v>
       </c>
-      <c r="AZ2">
-        <v>37</v>
-      </c>
-      <c r="BA2">
-        <v>596</v>
-      </c>
-      <c r="BB2">
-        <v>14</v>
-      </c>
-      <c r="BC2">
+      <c r="BI2">
+        <v>94</v>
+      </c>
+      <c r="BJ2">
+        <v>70</v>
+      </c>
+      <c r="BK2">
+        <v>1</v>
+      </c>
+      <c r="BL2">
+        <v>4</v>
+      </c>
+      <c r="BM2">
+        <v>2</v>
+      </c>
+      <c r="BN2">
+        <v>11</v>
+      </c>
+      <c r="BO2">
         <v>10</v>
       </c>
-      <c r="BD2">
-        <v>11</v>
-      </c>
-      <c r="BE2">
-        <v>12</v>
-      </c>
-      <c r="BF2">
-        <v>94</v>
-      </c>
-      <c r="BG2">
-        <v>58</v>
-      </c>
-      <c r="BH2">
+      <c r="BP2">
+        <v>20</v>
+      </c>
+      <c r="BQ2">
+        <v>7</v>
+      </c>
+      <c r="BR2">
         <v>4</v>
       </c>
-      <c r="BI2">
-        <v>2</v>
-      </c>
-      <c r="BJ2">
-        <v>11</v>
-      </c>
-      <c r="BK2">
+      <c r="BS2">
+        <v>67</v>
+      </c>
+      <c r="BT2">
+        <v>15</v>
+      </c>
+      <c r="BU2">
+        <v>5</v>
+      </c>
+      <c r="BV2">
+        <v>52</v>
+      </c>
+      <c r="BW2">
+        <v>5</v>
+      </c>
+      <c r="BX2">
+        <v>26</v>
+      </c>
+      <c r="BY2">
+        <v>13</v>
+      </c>
+      <c r="BZ2">
+        <v>9</v>
+      </c>
+      <c r="CA2">
+        <v>10</v>
+      </c>
+      <c r="CB2">
+        <v>50</v>
+      </c>
+      <c r="CC2">
+        <v>4</v>
+      </c>
+      <c r="CD2">
         <v>8</v>
       </c>
-      <c r="BL2">
-        <v>19</v>
-      </c>
-      <c r="BM2">
+      <c r="CE2">
+        <v>28</v>
+      </c>
+      <c r="CF2">
         <v>7</v>
       </c>
-      <c r="BN2">
-        <v>3</v>
-      </c>
-      <c r="BO2">
-        <v>59</v>
-      </c>
-      <c r="BP2">
-        <v>12</v>
-      </c>
-      <c r="BQ2">
-        <v>5</v>
-      </c>
-      <c r="BR2">
-        <v>52</v>
-      </c>
-      <c r="BS2">
-        <v>5</v>
-      </c>
-      <c r="BT2">
-        <v>24</v>
-      </c>
-      <c r="BU2">
-        <v>13</v>
-      </c>
-      <c r="BV2">
-        <v>7</v>
-      </c>
-      <c r="BW2">
-        <v>8</v>
-      </c>
-      <c r="BX2">
-        <v>50</v>
-      </c>
-      <c r="BY2">
-        <v>4</v>
-      </c>
-      <c r="BZ2">
-        <v>8</v>
-      </c>
-      <c r="CA2">
-        <v>27</v>
-      </c>
-      <c r="CB2">
-        <v>6</v>
-      </c>
-      <c r="CC2">
+      <c r="CG2">
         <v>26</v>
       </c>
-      <c r="CD2">
+      <c r="CH2">
         <v>18</v>
-      </c>
-      <c r="CE2">
-        <v>7</v>
-      </c>
-      <c r="CF2">
-        <v>13</v>
-      </c>
-      <c r="CG2">
-        <v>25</v>
-      </c>
-      <c r="CH2">
-        <v>6</v>
       </c>
       <c r="CI2">
         <v>7</v>
       </c>
       <c r="CJ2">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="CK2">
+        <v>31</v>
+      </c>
+      <c r="CL2">
+        <v>6</v>
+      </c>
+      <c r="CM2">
         <v>7</v>
       </c>
-      <c r="CL2">
+      <c r="CN2">
+        <v>33</v>
+      </c>
+      <c r="CO2">
+        <v>8</v>
+      </c>
+      <c r="CP2">
         <v>12</v>
       </c>
-      <c r="CM2">
+      <c r="CQ2">
+        <v>6</v>
+      </c>
+      <c r="CR2">
+        <v>21</v>
+      </c>
+      <c r="CS2">
         <v>5</v>
       </c>
-      <c r="CN2">
-        <v>17</v>
-      </c>
-      <c r="CO2">
+      <c r="CT2">
+        <v>24</v>
+      </c>
+      <c r="CU2">
         <v>5</v>
       </c>
-      <c r="CP2">
-        <v>28</v>
-      </c>
-      <c r="CQ2">
+      <c r="CV2">
+        <v>13</v>
+      </c>
+      <c r="CW2">
+        <v>12</v>
+      </c>
+      <c r="CX2">
+        <v>58</v>
+      </c>
+      <c r="CY2">
+        <v>26</v>
+      </c>
+      <c r="CZ2">
+        <v>10</v>
+      </c>
+      <c r="DA2">
+        <v>115</v>
+      </c>
+      <c r="DB2">
         <v>5</v>
       </c>
-      <c r="CR2">
+      <c r="DC2">
+        <v>30</v>
+      </c>
+      <c r="DD2">
+        <v>66</v>
+      </c>
+      <c r="DE2">
+        <v>7</v>
+      </c>
+      <c r="DF2">
+        <v>49</v>
+      </c>
+      <c r="DG2">
+        <v>23</v>
+      </c>
+      <c r="DH2">
+        <v>38</v>
+      </c>
+      <c r="DI2">
+        <v>14</v>
+      </c>
+      <c r="DJ2">
         <v>13</v>
       </c>
-      <c r="CS2">
-        <v>12</v>
-      </c>
-      <c r="CT2">
-        <v>50</v>
-      </c>
-      <c r="CU2">
-        <v>27</v>
-      </c>
-      <c r="CV2">
-        <v>10</v>
-      </c>
-      <c r="CW2">
-        <v>109</v>
-      </c>
-      <c r="CX2">
-        <v>5</v>
-      </c>
-      <c r="CY2">
-        <v>30</v>
-      </c>
-      <c r="CZ2">
-        <v>52</v>
-      </c>
-      <c r="DA2">
-        <v>7</v>
-      </c>
-      <c r="DB2">
-        <v>48</v>
-      </c>
-      <c r="DC2">
-        <v>21</v>
-      </c>
-      <c r="DD2">
-        <v>32</v>
-      </c>
-      <c r="DE2">
-        <v>14</v>
-      </c>
-      <c r="DF2">
-        <v>13</v>
-      </c>
-      <c r="DG2">
-        <v>105</v>
+      <c r="DK2">
+        <v>107</v>
       </c>
     </row>
     <row r="3">
@@ -1270,16 +1302,16 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1288,10 +1320,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1300,58 +1332,58 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V3">
         <v>0</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
         <v>8</v>
       </c>
-      <c r="Z3">
-        <v>3</v>
-      </c>
-      <c r="AA3">
-        <v>1</v>
-      </c>
       <c r="AB3">
+        <v>3</v>
+      </c>
+      <c r="AC3">
+        <v>1</v>
+      </c>
+      <c r="AD3">
         <v>4</v>
       </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
       <c r="AE3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -1390,55 +1422,55 @@
         <v>0</v>
       </c>
       <c r="AT3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV3">
         <v>0</v>
       </c>
       <c r="AW3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AX3">
         <v>0</v>
       </c>
       <c r="AY3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
         <v>0</v>
       </c>
       <c r="BA3">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC3">
         <v>0</v>
       </c>
       <c r="BD3">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="BE3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BK3">
         <v>0</v>
@@ -1453,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="BO3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP3">
         <v>0</v>
@@ -1462,37 +1494,37 @@
         <v>0</v>
       </c>
       <c r="BR3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>3</v>
+      </c>
+      <c r="BW3">
+        <v>0</v>
+      </c>
+      <c r="BX3">
+        <v>1</v>
+      </c>
+      <c r="BY3">
         <v>5</v>
       </c>
-      <c r="BV3">
-        <v>3</v>
-      </c>
-      <c r="BW3">
-        <v>0</v>
-      </c>
-      <c r="BX3">
-        <v>1</v>
-      </c>
-      <c r="BY3">
-        <v>0</v>
-      </c>
       <c r="BZ3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CA3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC3">
         <v>0</v>
@@ -1501,13 +1533,13 @@
         <v>0</v>
       </c>
       <c r="CE3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CF3">
         <v>0</v>
       </c>
       <c r="CG3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CH3">
         <v>0</v>
@@ -1519,31 +1551,31 @@
         <v>0</v>
       </c>
       <c r="CK3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CL3">
         <v>0</v>
       </c>
       <c r="CM3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO3">
         <v>0</v>
       </c>
       <c r="CP3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ3">
         <v>1</v>
       </c>
       <c r="CR3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CS3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT3">
         <v>1</v>
@@ -1555,36 +1587,48 @@
         <v>0</v>
       </c>
       <c r="CW3">
+        <v>1</v>
+      </c>
+      <c r="CX3">
+        <v>1</v>
+      </c>
+      <c r="CY3">
+        <v>1</v>
+      </c>
+      <c r="CZ3">
+        <v>0</v>
+      </c>
+      <c r="DA3">
         <v>4</v>
       </c>
-      <c r="CX3">
-        <v>1</v>
-      </c>
-      <c r="CY3">
-        <v>0</v>
-      </c>
-      <c r="CZ3">
-        <v>0</v>
-      </c>
-      <c r="DA3">
-        <v>1</v>
-      </c>
       <c r="DB3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DC3">
+        <v>0</v>
+      </c>
+      <c r="DD3">
+        <v>0</v>
+      </c>
+      <c r="DE3">
+        <v>1</v>
+      </c>
+      <c r="DF3">
+        <v>0</v>
+      </c>
+      <c r="DG3">
         <v>5</v>
       </c>
-      <c r="DD3">
-        <v>2</v>
-      </c>
-      <c r="DE3">
-        <v>1</v>
-      </c>
-      <c r="DF3">
-        <v>1</v>
-      </c>
-      <c r="DG3">
+      <c r="DH3">
+        <v>2</v>
+      </c>
+      <c r="DI3">
+        <v>1</v>
+      </c>
+      <c r="DJ3">
+        <v>3</v>
+      </c>
+      <c r="DK3">
         <v>4</v>
       </c>
     </row>
@@ -1598,47 +1642,47 @@
         <v>0</v>
       </c>
       <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
         <v>4</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4">
         <v>4</v>
       </c>
-      <c r="P4">
-        <v>2</v>
-      </c>
       <c r="Q4">
         <v>1</v>
       </c>
@@ -1646,151 +1690,151 @@
         <v>1</v>
       </c>
       <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
         <v>9</v>
       </c>
-      <c r="T4">
-        <v>1</v>
-      </c>
-      <c r="U4">
-        <v>1</v>
-      </c>
       <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
         <v>7</v>
       </c>
-      <c r="W4">
+      <c r="Y4">
+        <v>5</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>57</v>
+      </c>
+      <c r="AB4">
+        <v>3</v>
+      </c>
+      <c r="AC4">
+        <v>12</v>
+      </c>
+      <c r="AD4">
+        <v>8</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>1</v>
+      </c>
+      <c r="AG4">
+        <v>3</v>
+      </c>
+      <c r="AH4">
+        <v>2</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>1</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>1</v>
+      </c>
+      <c r="AM4">
+        <v>2</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>2</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>3</v>
+      </c>
+      <c r="AR4">
+        <v>2</v>
+      </c>
+      <c r="AS4">
+        <v>1</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
         <v>4</v>
       </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>56</v>
-      </c>
-      <c r="Z4">
-        <v>2</v>
-      </c>
-      <c r="AA4">
-        <v>12</v>
-      </c>
-      <c r="AB4">
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>5</v>
+      </c>
+      <c r="BB4">
+        <v>4</v>
+      </c>
+      <c r="BC4">
+        <v>9</v>
+      </c>
+      <c r="BD4">
+        <v>192</v>
+      </c>
+      <c r="BE4">
+        <v>2</v>
+      </c>
+      <c r="BF4">
+        <v>3</v>
+      </c>
+      <c r="BG4">
+        <v>2</v>
+      </c>
+      <c r="BH4">
+        <v>1</v>
+      </c>
+      <c r="BI4">
+        <v>20</v>
+      </c>
+      <c r="BJ4">
         <v>8</v>
       </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>1</v>
-      </c>
-      <c r="AE4">
-        <v>2</v>
-      </c>
-      <c r="AF4">
-        <v>2</v>
-      </c>
-      <c r="AG4">
-        <v>1</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>1</v>
-      </c>
-      <c r="AJ4">
-        <v>2</v>
-      </c>
-      <c r="AK4">
-        <v>0</v>
-      </c>
-      <c r="AL4">
-        <v>2</v>
-      </c>
-      <c r="AM4">
-        <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>3</v>
-      </c>
-      <c r="AO4">
-        <v>2</v>
-      </c>
-      <c r="AP4">
-        <v>0</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>0</v>
-      </c>
-      <c r="AS4">
-        <v>0</v>
-      </c>
-      <c r="AT4">
-        <v>4</v>
-      </c>
-      <c r="AU4">
-        <v>0</v>
-      </c>
-      <c r="AV4">
-        <v>0</v>
-      </c>
-      <c r="AW4">
-        <v>0</v>
-      </c>
-      <c r="AX4">
-        <v>3</v>
-      </c>
-      <c r="AY4">
-        <v>4</v>
-      </c>
-      <c r="AZ4">
-        <v>9</v>
-      </c>
-      <c r="BA4">
-        <v>184</v>
-      </c>
-      <c r="BB4">
-        <v>1</v>
-      </c>
-      <c r="BC4">
-        <v>4</v>
-      </c>
-      <c r="BD4">
-        <v>2</v>
-      </c>
-      <c r="BE4">
-        <v>1</v>
-      </c>
-      <c r="BF4">
-        <v>17</v>
-      </c>
-      <c r="BG4">
-        <v>7</v>
-      </c>
-      <c r="BH4">
-        <v>1</v>
-      </c>
-      <c r="BI4">
-        <v>2</v>
-      </c>
-      <c r="BJ4">
-        <v>3</v>
-      </c>
       <c r="BK4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BM4">
         <v>2</v>
       </c>
       <c r="BN4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BO4">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="BP4">
         <v>3</v>
@@ -1799,22 +1843,22 @@
         <v>2</v>
       </c>
       <c r="BR4">
+        <v>2</v>
+      </c>
+      <c r="BS4">
+        <v>8</v>
+      </c>
+      <c r="BT4">
+        <v>3</v>
+      </c>
+      <c r="BU4">
+        <v>2</v>
+      </c>
+      <c r="BV4">
         <v>21</v>
       </c>
-      <c r="BS4">
-        <v>0</v>
-      </c>
-      <c r="BT4">
-        <v>10</v>
-      </c>
-      <c r="BU4">
-        <v>2</v>
-      </c>
-      <c r="BV4">
-        <v>1</v>
-      </c>
       <c r="BW4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BX4">
         <v>10</v>
@@ -1823,94 +1867,94 @@
         <v>2</v>
       </c>
       <c r="BZ4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CA4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="CB4">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="CC4">
         <v>3</v>
       </c>
       <c r="CD4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CE4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="CF4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CG4">
+        <v>3</v>
+      </c>
+      <c r="CH4">
+        <v>0</v>
+      </c>
+      <c r="CI4">
+        <v>0</v>
+      </c>
+      <c r="CJ4">
+        <v>3</v>
+      </c>
+      <c r="CK4">
+        <v>12</v>
+      </c>
+      <c r="CL4">
+        <v>6</v>
+      </c>
+      <c r="CM4">
+        <v>3</v>
+      </c>
+      <c r="CN4">
+        <v>6</v>
+      </c>
+      <c r="CO4">
+        <v>1</v>
+      </c>
+      <c r="CP4">
+        <v>2</v>
+      </c>
+      <c r="CQ4">
+        <v>0</v>
+      </c>
+      <c r="CR4">
+        <v>3</v>
+      </c>
+      <c r="CS4">
+        <v>0</v>
+      </c>
+      <c r="CT4">
+        <v>2</v>
+      </c>
+      <c r="CU4">
+        <v>0</v>
+      </c>
+      <c r="CV4">
+        <v>2</v>
+      </c>
+      <c r="CW4">
+        <v>1</v>
+      </c>
+      <c r="CX4">
+        <v>6</v>
+      </c>
+      <c r="CY4">
+        <v>4</v>
+      </c>
+      <c r="CZ4">
+        <v>0</v>
+      </c>
+      <c r="DA4">
         <v>10</v>
       </c>
-      <c r="CH4">
-        <v>6</v>
-      </c>
-      <c r="CI4">
-        <v>3</v>
-      </c>
-      <c r="CJ4">
-        <v>6</v>
-      </c>
-      <c r="CK4">
-        <v>0</v>
-      </c>
-      <c r="CL4">
-        <v>2</v>
-      </c>
-      <c r="CM4">
-        <v>0</v>
-      </c>
-      <c r="CN4">
-        <v>3</v>
-      </c>
-      <c r="CO4">
-        <v>0</v>
-      </c>
-      <c r="CP4">
-        <v>2</v>
-      </c>
-      <c r="CQ4">
-        <v>0</v>
-      </c>
-      <c r="CR4">
-        <v>2</v>
-      </c>
-      <c r="CS4">
-        <v>1</v>
-      </c>
-      <c r="CT4">
-        <v>6</v>
-      </c>
-      <c r="CU4">
-        <v>4</v>
-      </c>
-      <c r="CV4">
-        <v>0</v>
-      </c>
-      <c r="CW4">
-        <v>7</v>
-      </c>
-      <c r="CX4">
-        <v>1</v>
-      </c>
-      <c r="CY4">
-        <v>0</v>
-      </c>
-      <c r="CZ4">
-        <v>4</v>
-      </c>
-      <c r="DA4">
-        <v>1</v>
-      </c>
       <c r="DB4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="DC4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DD4">
         <v>4</v>
@@ -1919,10 +1963,22 @@
         <v>1</v>
       </c>
       <c r="DF4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="DG4">
-        <v>9</v>
+        <v>4</v>
+      </c>
+      <c r="DH4">
+        <v>4</v>
+      </c>
+      <c r="DI4">
+        <v>1</v>
+      </c>
+      <c r="DJ4">
+        <v>3</v>
+      </c>
+      <c r="DK4">
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -1932,13 +1988,13 @@
         </is>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1947,31 +2003,31 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
         <v>12</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
       <c r="N5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -1983,283 +2039,295 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5">
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5">
         <v>0</v>
       </c>
       <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
         <v>4</v>
       </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>19</v>
-      </c>
       <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>18</v>
+      </c>
+      <c r="AB5">
+        <v>8</v>
+      </c>
+      <c r="AC5">
+        <v>4</v>
+      </c>
+      <c r="AD5">
+        <v>1</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>2</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>2</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+      <c r="AM5">
+        <v>1</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>1</v>
+      </c>
+      <c r="AP5">
+        <v>4</v>
+      </c>
+      <c r="AQ5">
+        <v>10</v>
+      </c>
+      <c r="AR5">
+        <v>3</v>
+      </c>
+      <c r="AS5">
+        <v>1</v>
+      </c>
+      <c r="AT5">
+        <v>1</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>1</v>
+      </c>
+      <c r="AW5">
+        <v>1</v>
+      </c>
+      <c r="AX5">
+        <v>1</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>1</v>
+      </c>
+      <c r="BA5">
+        <v>1</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>11</v>
+      </c>
+      <c r="BD5">
+        <v>61</v>
+      </c>
+      <c r="BE5">
+        <v>1</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>1</v>
+      </c>
+      <c r="BI5">
+        <v>1</v>
+      </c>
+      <c r="BJ5">
+        <v>3</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5">
+        <v>0</v>
+      </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
+      <c r="BN5">
+        <v>2</v>
+      </c>
+      <c r="BO5">
+        <v>0</v>
+      </c>
+      <c r="BP5">
+        <v>0</v>
+      </c>
+      <c r="BQ5">
+        <v>1</v>
+      </c>
+      <c r="BR5">
+        <v>0</v>
+      </c>
+      <c r="BS5">
+        <v>3</v>
+      </c>
+      <c r="BT5">
+        <v>3</v>
+      </c>
+      <c r="BU5">
+        <v>0</v>
+      </c>
+      <c r="BV5">
+        <v>6</v>
+      </c>
+      <c r="BW5">
+        <v>1</v>
+      </c>
+      <c r="BX5">
+        <v>2</v>
+      </c>
+      <c r="BY5">
+        <v>1</v>
+      </c>
+      <c r="BZ5">
+        <v>3</v>
+      </c>
+      <c r="CA5">
+        <v>0</v>
+      </c>
+      <c r="CB5">
+        <v>3</v>
+      </c>
+      <c r="CC5">
+        <v>0</v>
+      </c>
+      <c r="CD5">
+        <v>1</v>
+      </c>
+      <c r="CE5">
+        <v>2</v>
+      </c>
+      <c r="CF5">
+        <v>2</v>
+      </c>
+      <c r="CG5">
+        <v>1</v>
+      </c>
+      <c r="CH5">
+        <v>1</v>
+      </c>
+      <c r="CI5">
+        <v>0</v>
+      </c>
+      <c r="CJ5">
+        <v>0</v>
+      </c>
+      <c r="CK5">
         <v>5</v>
       </c>
-      <c r="AA5">
+      <c r="CL5">
+        <v>1</v>
+      </c>
+      <c r="CM5">
+        <v>0</v>
+      </c>
+      <c r="CN5">
+        <v>6</v>
+      </c>
+      <c r="CO5">
+        <v>0</v>
+      </c>
+      <c r="CP5">
+        <v>1</v>
+      </c>
+      <c r="CQ5">
+        <v>0</v>
+      </c>
+      <c r="CR5">
+        <v>1</v>
+      </c>
+      <c r="CS5">
+        <v>0</v>
+      </c>
+      <c r="CT5">
+        <v>1</v>
+      </c>
+      <c r="CU5">
+        <v>1</v>
+      </c>
+      <c r="CV5">
+        <v>2</v>
+      </c>
+      <c r="CW5">
+        <v>1</v>
+      </c>
+      <c r="CX5">
+        <v>4</v>
+      </c>
+      <c r="CY5">
+        <v>2</v>
+      </c>
+      <c r="CZ5">
+        <v>1</v>
+      </c>
+      <c r="DA5">
+        <v>12</v>
+      </c>
+      <c r="DB5">
+        <v>0</v>
+      </c>
+      <c r="DC5">
+        <v>1</v>
+      </c>
+      <c r="DD5">
+        <v>2</v>
+      </c>
+      <c r="DE5">
+        <v>0</v>
+      </c>
+      <c r="DF5">
+        <v>8</v>
+      </c>
+      <c r="DG5">
+        <v>4</v>
+      </c>
+      <c r="DH5">
+        <v>1</v>
+      </c>
+      <c r="DI5">
+        <v>0</v>
+      </c>
+      <c r="DJ5">
+        <v>1</v>
+      </c>
+      <c r="DK5">
         <v>7</v>
-      </c>
-      <c r="AB5">
-        <v>1</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>2</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>2</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>1</v>
-      </c>
-      <c r="AJ5">
-        <v>1</v>
-      </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
-      <c r="AL5">
-        <v>1</v>
-      </c>
-      <c r="AM5">
-        <v>4</v>
-      </c>
-      <c r="AN5">
-        <v>10</v>
-      </c>
-      <c r="AO5">
-        <v>2</v>
-      </c>
-      <c r="AP5">
-        <v>0</v>
-      </c>
-      <c r="AQ5">
-        <v>1</v>
-      </c>
-      <c r="AR5">
-        <v>0</v>
-      </c>
-      <c r="AS5">
-        <v>1</v>
-      </c>
-      <c r="AT5">
-        <v>1</v>
-      </c>
-      <c r="AU5">
-        <v>1</v>
-      </c>
-      <c r="AV5">
-        <v>0</v>
-      </c>
-      <c r="AW5">
-        <v>1</v>
-      </c>
-      <c r="AX5">
-        <v>1</v>
-      </c>
-      <c r="AY5">
-        <v>0</v>
-      </c>
-      <c r="AZ5">
-        <v>11</v>
-      </c>
-      <c r="BA5">
-        <v>57</v>
-      </c>
-      <c r="BB5">
-        <v>1</v>
-      </c>
-      <c r="BC5">
-        <v>0</v>
-      </c>
-      <c r="BD5">
-        <v>0</v>
-      </c>
-      <c r="BE5">
-        <v>0</v>
-      </c>
-      <c r="BF5">
-        <v>1</v>
-      </c>
-      <c r="BG5">
-        <v>1</v>
-      </c>
-      <c r="BH5">
-        <v>0</v>
-      </c>
-      <c r="BI5">
-        <v>0</v>
-      </c>
-      <c r="BJ5">
-        <v>2</v>
-      </c>
-      <c r="BK5">
-        <v>0</v>
-      </c>
-      <c r="BL5">
-        <v>0</v>
-      </c>
-      <c r="BM5">
-        <v>1</v>
-      </c>
-      <c r="BN5">
-        <v>0</v>
-      </c>
-      <c r="BO5">
-        <v>3</v>
-      </c>
-      <c r="BP5">
-        <v>1</v>
-      </c>
-      <c r="BQ5">
-        <v>0</v>
-      </c>
-      <c r="BR5">
-        <v>6</v>
-      </c>
-      <c r="BS5">
-        <v>1</v>
-      </c>
-      <c r="BT5">
-        <v>2</v>
-      </c>
-      <c r="BU5">
-        <v>1</v>
-      </c>
-      <c r="BV5">
-        <v>2</v>
-      </c>
-      <c r="BW5">
-        <v>0</v>
-      </c>
-      <c r="BX5">
-        <v>2</v>
-      </c>
-      <c r="BY5">
-        <v>0</v>
-      </c>
-      <c r="BZ5">
-        <v>1</v>
-      </c>
-      <c r="CA5">
-        <v>2</v>
-      </c>
-      <c r="CB5">
-        <v>2</v>
-      </c>
-      <c r="CC5">
-        <v>1</v>
-      </c>
-      <c r="CD5">
-        <v>1</v>
-      </c>
-      <c r="CE5">
-        <v>0</v>
-      </c>
-      <c r="CF5">
-        <v>0</v>
-      </c>
-      <c r="CG5">
-        <v>5</v>
-      </c>
-      <c r="CH5">
-        <v>1</v>
-      </c>
-      <c r="CI5">
-        <v>0</v>
-      </c>
-      <c r="CJ5">
-        <v>6</v>
-      </c>
-      <c r="CK5">
-        <v>0</v>
-      </c>
-      <c r="CL5">
-        <v>1</v>
-      </c>
-      <c r="CM5">
-        <v>0</v>
-      </c>
-      <c r="CN5">
-        <v>1</v>
-      </c>
-      <c r="CO5">
-        <v>0</v>
-      </c>
-      <c r="CP5">
-        <v>1</v>
-      </c>
-      <c r="CQ5">
-        <v>1</v>
-      </c>
-      <c r="CR5">
-        <v>2</v>
-      </c>
-      <c r="CS5">
-        <v>1</v>
-      </c>
-      <c r="CT5">
-        <v>4</v>
-      </c>
-      <c r="CU5">
-        <v>2</v>
-      </c>
-      <c r="CV5">
-        <v>1</v>
-      </c>
-      <c r="CW5">
-        <v>11</v>
-      </c>
-      <c r="CX5">
-        <v>0</v>
-      </c>
-      <c r="CY5">
-        <v>1</v>
-      </c>
-      <c r="CZ5">
-        <v>1</v>
-      </c>
-      <c r="DA5">
-        <v>0</v>
-      </c>
-      <c r="DB5">
-        <v>8</v>
-      </c>
-      <c r="DC5">
-        <v>4</v>
-      </c>
-      <c r="DD5">
-        <v>1</v>
-      </c>
-      <c r="DE5">
-        <v>0</v>
-      </c>
-      <c r="DF5">
-        <v>1</v>
-      </c>
-      <c r="DG5">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
